--- a/9_1_Kosten/9_2_Kosten_20.xlsx
+++ b/9_1_Kosten/9_2_Kosten_20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer-my.sharepoint.com/personal/lara_josephine_barnic_iee_fraunhofer_de/Documents/A_Bearbeitung/9_Parameterstudie_REP/9_1_Kosten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1592" documentId="11_AD4DB114E441178AC67DF4879E90C19A693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2415C32B-D20E-4F4B-B313-CB264070B336}"/>
+  <xr:revisionPtr revIDLastSave="1599" documentId="11_AD4DB114E441178AC67DF4879E90C19A693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942A0A71-C426-459E-AE2C-F593F904FDF7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="8" r:id="rId1"/>
@@ -881,7 +881,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1016,6 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
@@ -1126,7 +1127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0EF5A81-EA25-4DE4-983B-7A800F579C1C}" type="CELLRANGE">
+                    <a:fld id="{E5A2DB81-9271-40AA-A337-52A08B20ED8D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1160,7 +1161,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7152AD1-69E0-4CA6-BC11-5F09C60000C8}" type="CELLRANGE">
+                    <a:fld id="{E6A79DDD-D6F7-4DF4-A42E-2297B215438D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1239,7 +1240,7 @@
                   <c:v>2.0695804917797993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.81821452801349</c:v>
+                  <c:v>1.728968557994369</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.1404929913135451</c:v>
@@ -1674,7 +1675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB7DE31B-0D39-4BA4-8BC9-C547EFBDDF26}" type="CELLRANGE">
+                    <a:fld id="{69BBDEF9-6A45-46D1-A1A8-F9D710479FE1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1708,7 +1709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38376BDE-6B01-4808-A03F-A037C6AB8C39}" type="CELLRANGE">
+                    <a:fld id="{D36C6E98-BF45-4672-9ACB-D37D8100D51D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1787,7 +1788,7 @@
                   <c:v>2.0695804917797993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.81821452801349</c:v>
+                  <c:v>1.728968557994369</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.1404929913135451</c:v>
@@ -2462,7 +2463,7 @@
                   <c:v>167566.24131354483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>576996.74237317289</c:v>
+                  <c:v>487750.77235405182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,7 +2833,7 @@
                   <c:v>0.73814771008916502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34649376643597352</c:v>
+                  <c:v>0.36437909589912382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,7 +2898,7 @@
                   <c:v>3.8003488135731164E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16286729705314518</c:v>
+                  <c:v>0.171274187879871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2962,7 +2963,7 @@
                   <c:v>0.11387283256200852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15560050568350806</c:v>
+                  <c:v>0.16363229897493684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,7 +3028,7 @@
                   <c:v>7.8283947666988332E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31734249918439328</c:v>
+                  <c:v>0.28210505627693455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,7 +3093,7 @@
                   <c:v>3.1692021546107056E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7695931642980077E-2</c:v>
+                  <c:v>1.8609360969133824E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,9 +5678,6 @@
           <cell r="C4">
             <v>49237.671936835155</v>
           </cell>
-          <cell r="D4">
-            <v>149735.09182771994</v>
-          </cell>
           <cell r="E4">
             <v>41164.404932023172</v>
           </cell>
@@ -6000,7 +5998,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6036,7 +6034,7 @@
       </c>
       <c r="C2" s="47">
         <f t="shared" ref="C2:D2" si="0">C5/1000000</f>
-        <v>1.81821452801349</v>
+        <v>1.728968557994369</v>
       </c>
       <c r="D2" s="42">
         <f t="shared" si="0"/>
@@ -6086,11 +6084,11 @@
       </c>
       <c r="M3" s="3">
         <f>(K3-K4)/K4</f>
-        <v>0.13824879291936021</v>
+        <v>0.19700296584950369</v>
       </c>
       <c r="N3" s="3">
         <f>K3-K4</f>
-        <v>0.25136596376630926</v>
+        <v>0.34061193378543031</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -6102,7 +6100,7 @@
       </c>
       <c r="K4" s="42">
         <f>C2</f>
-        <v>1.81821452801349</v>
+        <v>1.728968557994369</v>
       </c>
       <c r="L4" s="42">
         <v>557.10423600000001</v>
@@ -6115,7 +6113,7 @@
       </c>
       <c r="C5" s="42">
         <f>'NT-WN_20'!B29</f>
-        <v>1818214.5280134901</v>
+        <v>1728968.557994369</v>
       </c>
       <c r="D5" s="42">
         <f>'kalte NW'!B30</f>
@@ -6133,11 +6131,11 @@
       </c>
       <c r="M5" s="3">
         <f>(K5-K4)/K4</f>
-        <v>0.17724996601592655</v>
+        <v>0.23801730310038199</v>
       </c>
       <c r="N5" s="3">
         <f>K5-K4</f>
-        <v>0.32227846330005505</v>
+        <v>0.4115244333191761</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -6153,31 +6151,31 @@
       </c>
       <c r="B7" s="3">
         <f>B5-C5</f>
-        <v>251365.9637663092</v>
+        <v>340611.93378543039</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3">
         <f>D5-C5</f>
-        <v>322278.46330005489</v>
+        <v>411524.43331917608</v>
       </c>
       <c r="F7" s="3">
         <f>D2-C2</f>
-        <v>0.32227846330005505</v>
+        <v>0.4115244333191761</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="45">
         <f>B7/C5</f>
-        <v>0.13824879291936018</v>
+        <v>0.19700296584950375</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="45">
         <f>D7/C5</f>
-        <v>0.17724996601592646</v>
+        <v>0.23801730310038199</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -6255,7 +6253,7 @@
       </c>
       <c r="C15">
         <f>C2/C14</f>
-        <v>6.0028956744696024E-4</v>
+        <v>5.7082471392514019E-4</v>
       </c>
       <c r="D15">
         <f>D2/D14</f>
@@ -6277,8 +6275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B24C0F-6734-4579-B89E-086B8618A834}">
   <dimension ref="B1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6286,6 +6284,7 @@
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7265625" customWidth="1"/>
     <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.453125" customWidth="1"/>
@@ -6330,6 +6329,7 @@
       <c r="E7" t="s">
         <v>49</v>
       </c>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
@@ -6340,7 +6340,7 @@
         <v>289881.59328429529</v>
       </c>
       <c r="D8" s="2">
-        <v>656962.71539412113</v>
+        <v>567716.74537500006</v>
       </c>
       <c r="E8" s="2">
         <v>257330.43434875214</v>
@@ -6396,8 +6396,7 @@
         <v>66069.878811235394</v>
       </c>
       <c r="E14" s="38">
-        <f>[1]Netzstrom_PV_Strom!$D$4</f>
-        <v>149735.09182771994</v>
+        <v>129394.13</v>
       </c>
       <c r="F14" s="38">
         <f>[1]Netzstrom_PV_Strom!$F$4</f>
@@ -6472,7 +6471,7 @@
       </c>
       <c r="E17" s="3">
         <f>$C17*$E$14/100</f>
-        <v>34004.8393540752</v>
+        <v>29385.406923000002</v>
       </c>
       <c r="F17" s="3">
         <f>$C17*$F$14/100</f>
@@ -6514,7 +6513,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" ref="E18:E38" si="2">$C18*$E$14/100</f>
-        <v>31998.389123583751</v>
+        <v>27651.525581000002</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ref="F18:F38" si="3">$C18*$F$14/100</f>
@@ -6556,7 +6555,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>30740.614352230903</v>
+        <v>26564.614889000004</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
@@ -6598,7 +6597,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>30231.51504001666</v>
+        <v>26124.674847000002</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
@@ -6640,7 +6639,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>30141.673984920024</v>
+        <v>26047.038369000002</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
@@ -6682,7 +6681,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="2"/>
-        <v>30276.435567564968</v>
+        <v>26163.493086000002</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="3"/>
@@ -6725,7 +6724,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>30246.488549199425</v>
+        <v>26137.614259999998</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
@@ -6768,7 +6767,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="2"/>
-        <v>30216.541530833882</v>
+        <v>26111.735433999998</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
@@ -6811,7 +6810,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="2"/>
-        <v>30186.594512468339</v>
+        <v>26085.856608000002</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
@@ -6854,7 +6853,7 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="2"/>
-        <v>30156.647494102795</v>
+        <v>26059.977782000002</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
@@ -6896,7 +6895,7 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="2"/>
-        <v>30126.700475737252</v>
+        <v>26034.098956000005</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
@@ -6942,7 +6941,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="2"/>
-        <v>29821.240888408702</v>
+        <v>25770.134930799999</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="3"/>
@@ -6985,7 +6984,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="2"/>
-        <v>29515.781301080155</v>
+        <v>25506.1709056</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
@@ -7028,7 +7027,7 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" si="2"/>
-        <v>29210.321713751604</v>
+        <v>25242.206880400001</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
@@ -7071,7 +7070,7 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" si="2"/>
-        <v>28904.862126423057</v>
+        <v>24978.242855199998</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
@@ -7113,7 +7112,7 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" si="2"/>
-        <v>28599.40253909451</v>
+        <v>24714.278830000003</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
@@ -7155,7 +7154,7 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="2"/>
-        <v>28779.084649287768</v>
+        <v>24869.551785999996</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
@@ -7198,7 +7197,7 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" si="2"/>
-        <v>28773.095245614662</v>
+        <v>24864.376020799995</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
@@ -7241,7 +7240,7 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" si="2"/>
-        <v>28767.105841941549</v>
+        <v>24859.200255599993</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="3"/>
@@ -7284,7 +7283,7 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" si="2"/>
-        <v>28761.116438268436</v>
+        <v>24854.024490399996</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="3"/>
@@ -7327,7 +7326,7 @@
       </c>
       <c r="E37" s="3">
         <f t="shared" si="2"/>
-        <v>28755.127034595331</v>
+        <v>24848.848725199994</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="3"/>
@@ -7369,7 +7368,7 @@
       </c>
       <c r="E38" s="3">
         <f t="shared" si="2"/>
-        <v>28749.137630922225</v>
+        <v>24843.67296</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="3"/>
@@ -7408,7 +7407,7 @@
       </c>
       <c r="E40" s="3">
         <f>SUM(E17:E38)</f>
-        <v>656962.71539412113</v>
+        <v>567716.74537500006</v>
       </c>
       <c r="F40" s="3">
         <f>SUM(F17:F38)</f>
@@ -7476,7 +7475,7 @@
       </c>
       <c r="E43" s="41">
         <f>$C43*$E$14/100</f>
-        <v>38826.309310927776</v>
+        <v>33551.897908999999</v>
       </c>
       <c r="F43" s="41">
         <f>$C43*$D$14/100</f>
@@ -7519,7 +7518,7 @@
       </c>
       <c r="E44" s="41">
         <f>$C44*$E$14/100</f>
-        <v>40608.156903677649</v>
+        <v>35091.688055999999</v>
       </c>
       <c r="F44" s="41">
         <f>$C44*$D$14/100</f>
@@ -7562,7 +7561,7 @@
       </c>
       <c r="E45" s="41">
         <f>$C45*$E$14/100</f>
-        <v>36580.282933511982</v>
+        <v>31610.985959000001</v>
       </c>
       <c r="F45" s="41">
         <f>$C45*$D$14/100</f>
@@ -7605,7 +7604,7 @@
       </c>
       <c r="E46" s="41">
         <f>$C46*$E$14/100</f>
-        <v>36864.779607984652</v>
+        <v>31856.834806000003</v>
       </c>
       <c r="F46" s="41">
         <f>$C46*$D$14/100</f>
@@ -7728,7 +7727,7 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>0.34649376643597352</v>
+        <v>0.36437909589912382</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -7761,7 +7760,7 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>0.16286729705314518</v>
+        <v>0.171274187879871</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -7794,7 +7793,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>0.15560050568350806</v>
+        <v>0.16363229897493684</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -7808,7 +7807,7 @@
         <v>167566.24131354483</v>
       </c>
       <c r="D6" s="2">
-        <v>576996.74237317289</v>
+        <v>487750.77235405182</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="2">
@@ -7827,7 +7826,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>0.31734249918439328</v>
+        <v>0.28210505627693455</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -7860,7 +7859,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>1.7695931642980077E-2</v>
+        <v>1.8609360969133824E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -7886,7 +7885,7 @@
         <v>2140492.9913135446</v>
       </c>
       <c r="D9" s="2">
-        <v>1818214.5280134899</v>
+        <v>1728968.557994369</v>
       </c>
       <c r="E9" s="2"/>
       <c r="H9" t="s">
@@ -7932,7 +7931,7 @@
       </c>
       <c r="C12" s="46">
         <f>ROUND(D9,-4)</f>
-        <v>1820000</v>
+        <v>1730000</v>
       </c>
       <c r="D12" s="46">
         <f>ROUND(C9,-4)</f>
@@ -8060,7 +8059,7 @@
         <v>167566.24131354483</v>
       </c>
       <c r="E38" s="2">
-        <v>576996.74237317289</v>
+        <v>487750.77235405182</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
@@ -9362,8 +9361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9FB241-9669-439D-99A8-3E2AD756299A}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9471,7 +9470,7 @@
       </c>
       <c r="L5" s="7" cm="1">
         <f t="array" ref="L5:L6">'Allgemeine Parameter'!D8:D9</f>
-        <v>656962.71539412113</v>
+        <v>567716.74537500006</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -9862,7 +9861,7 @@
       <c r="A29" s="28"/>
       <c r="B29" s="33">
         <f>SUM(C29,I29,L29)</f>
-        <v>1818214.5280134901</v>
+        <v>1728968.557994369</v>
       </c>
       <c r="C29" s="17">
         <f>SUM(C1:C26)</f>
@@ -9875,7 +9874,7 @@
       </c>
       <c r="L29" s="54">
         <f>SUM(L5:L6)</f>
-        <v>576996.74237317289</v>
+        <v>487750.77235405182</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -9918,7 +9917,7 @@
       <c r="K32"/>
       <c r="L32" s="3">
         <f>L29-L31</f>
-        <v>409430.50105962809</v>
+        <v>320184.53104050702</v>
       </c>
       <c r="M32" s="79"/>
     </row>
@@ -9934,7 +9933,7 @@
       <c r="K33"/>
       <c r="L33" s="3">
         <f>L32/25</f>
-        <v>16377.220042385125</v>
+        <v>12807.38124162028</v>
       </c>
       <c r="M33" s="79"/>
     </row>
@@ -9968,7 +9967,7 @@
       </c>
       <c r="C36" s="67">
         <f>SUM(L29)</f>
-        <v>576996.74237317289</v>
+        <v>487750.77235405182</v>
       </c>
       <c r="I36"/>
       <c r="K36"/>
@@ -10000,7 +9999,7 @@
       </c>
       <c r="C39" s="33">
         <f>SUM(C33:C37)</f>
-        <v>1818214.5280134899</v>
+        <v>1728968.557994369</v>
       </c>
       <c r="I39"/>
       <c r="K39"/>
